--- a/Compar_SurEauC/Clim_Constant.xlsx
+++ b/Compar_SurEauC/Clim_Constant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicomartin/Documents/github/SureauR/SurEau-Ecos_V4.0/SurEau-Ecos_V4.0/Compar_SurEauC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicomartin/Documents/github/SureauR/SurEau-Ecos/SurEau-Ecos/Compar_SurEauC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF909A-99B0-5247-8E4F-115F3025E2D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8927E7B-6FE2-9F4A-BFF8-B65BDB7DB0A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{CCEC08FE-9C3C-4544-9EE0-9A457170D07F}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" activeTab="3" xr2:uid="{CCEC08FE-9C3C-4544-9EE0-9A457170D07F}"/>
   </bookViews>
   <sheets>
     <sheet name="Climat" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PlantPhys_Params" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1952,16 +1953,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2009,18 +2004,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2030,9 +2019,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2065,9 +2051,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2076,9 +2059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2117,16 +2097,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2149,9 +2123,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2185,9 +2156,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2229,9 +2197,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2242,23 +2207,11 @@
     <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2274,12 +2227,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2311,9 +2258,6 @@
     <xf numFmtId="2" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2382,9 +2326,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2402,6 +2343,66 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -67696,19 +67697,19 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="82.5" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="32" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16" style="11" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.1640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="32" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="16" style="9" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.1640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
@@ -67719,22 +67720,22 @@
         <v>81</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
@@ -67744,21 +67745,21 @@
         <v>6</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
     </row>
     <row r="4" spans="1:18" ht="34">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="2">
@@ -67768,2377 +67769,2392 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="49" customHeight="1">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="21" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>0.75</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="27">
         <f>E19*E17/(E19+E17)</f>
         <v>13.897058823529413</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="27">
         <f>I6/$E$8</f>
         <v>1.3235294117647061</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="30">
         <f>I10</f>
         <v>10.01058441892515</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="30">
         <f>J10</f>
         <v>0.95338899227858576</v>
       </c>
-      <c r="R6" s="36">
-        <f t="shared" ref="R6:R8" si="0">Q6*B$3</f>
+      <c r="R6" s="31">
+        <f>Q6*B$3</f>
         <v>5.7203339536715143</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <v>0.25</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="37" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="33">
         <f>E38*E55/(E55+E38)</f>
         <v>68.271952680178629</v>
       </c>
-      <c r="J7" s="31">
-        <f t="shared" ref="J7:J14" si="1">I7/$E$8</f>
+      <c r="J7" s="27">
+        <f t="shared" ref="J7:J14" si="0">I7/$E$8</f>
         <v>6.502090731445584</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="34">
         <f>I11</f>
         <v>18.900000000000002</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="35">
         <f>P7/E8</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="R7" s="36">
-        <f t="shared" si="0"/>
+      <c r="R7" s="31">
+        <f>Q7*B$3</f>
         <v>10.8</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="172"/>
+      <c r="C8" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="36">
         <v>10.5</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="33">
         <f>3*E79*E77/(E79+E77)</f>
         <v>75.248551049928807</v>
       </c>
-      <c r="J8" s="31">
-        <f t="shared" si="1"/>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
         <v>7.1665286714217915</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34" t="s">
+      <c r="M8" s="28"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="34">
         <f>SUM(I12:I14)</f>
         <v>84.255942613761263</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="35">
         <f>P8/E9</f>
         <v>0.84255942613761259</v>
       </c>
-      <c r="R8" s="36">
-        <f t="shared" si="0"/>
+      <c r="R8" s="31">
+        <f>Q8*B$3</f>
         <v>5.0553565568256751</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="36">
         <v>100</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="33">
         <f>1/((1/I8)+(1/I7)+(1/E17))</f>
         <v>21.283743997803789</v>
       </c>
-      <c r="J9" s="31">
-        <f t="shared" si="1"/>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
         <v>2.0270232378860751</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="36">
         <v>500</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="33">
         <f>1/((1/I8)+(1/I7)+(1/I6))</f>
         <v>10.01058441892515</v>
       </c>
-      <c r="J10" s="31">
-        <f t="shared" si="1"/>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
         <v>0.95338899227858576</v>
       </c>
-      <c r="R10" s="44"/>
+      <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="172"/>
+      <c r="C11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="36">
         <v>100</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="41">
         <f>E18*E8</f>
         <v>18.900000000000002</v>
       </c>
-      <c r="J11" s="174">
-        <f t="shared" si="1"/>
+      <c r="J11" s="154">
+        <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
       <c r="O11"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="9"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="17" customHeight="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="172"/>
+      <c r="C12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="36">
         <f>E9*1/E11*100</f>
         <v>100</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="41">
         <f>E40</f>
         <v>5.7838884375515125</v>
       </c>
-      <c r="J12" s="174">
-        <f t="shared" si="1"/>
+      <c r="J12" s="154">
+        <f t="shared" si="0"/>
         <v>0.55084651786204886</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
       <c r="O12"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="9"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="17" customHeight="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="36">
         <f>(1/(E10/1000)-1)*100</f>
         <v>100</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="41">
         <f>E57</f>
         <v>2.6911824283746544</v>
       </c>
-      <c r="J13" s="174">
-        <f t="shared" si="1"/>
+      <c r="J13" s="154">
+        <f t="shared" si="0"/>
         <v>0.25630308841663374</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="17" customHeight="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="172"/>
+      <c r="C14" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="36">
         <f>E$9/1000*E$6*E$8</f>
         <v>0.78750000000000009</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="41">
         <f>E79*3</f>
         <v>75.780871747835093</v>
       </c>
-      <c r="J14" s="174">
-        <f t="shared" si="1"/>
+      <c r="J14" s="154">
+        <f t="shared" si="0"/>
         <v>7.2172258807461995</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="36">
         <f>E$9/1000*E$7*E$8</f>
         <v>0.26250000000000001</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="34">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="172"/>
+      <c r="C16" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="36">
         <v>5</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53" t="s">
+      <c r="O16" s="46"/>
+      <c r="P16" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="Q16" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="53" t="s">
+      <c r="R16" s="46" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="172"/>
+      <c r="C17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="36">
         <f>E16*E8</f>
         <v>52.5</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="54" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="48">
         <f>E8</f>
         <v>10.5</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="49">
         <f>I17/$E$8</f>
         <v>1</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="55" t="s">
+      <c r="N17" s="176"/>
+      <c r="O17" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="48">
         <f>I17</f>
         <v>10.5</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="50">
         <f>P17/E$8</f>
         <v>1</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="47">
         <f>Q17*B$3</f>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="172"/>
+      <c r="C18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="36">
         <v>1.8</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="54" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="48">
         <f>E36</f>
         <v>5.7838884375515125</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="49">
         <f>I18/$E$8</f>
         <v>0.55084651786204886</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="55" t="s">
+      <c r="M18" s="7"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="48">
         <f>SUM(I18+I19)</f>
         <v>8.4750708659261669</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="50">
         <f>P18/E$8</f>
         <v>0.8071496062786826</v>
       </c>
-      <c r="R18" s="59">
-        <f t="shared" ref="R18:R20" si="2">Q18*B$3</f>
+      <c r="R18" s="52">
+        <f>Q18*B$3</f>
         <v>4.8428976376720954</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="172"/>
+      <c r="C19" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="36">
         <f>E18*E8</f>
         <v>18.900000000000002</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="54" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="48">
         <f>E53</f>
         <v>2.6911824283746544</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="49">
         <f>I19/$E$8</f>
         <v>0.25630308841663374</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="55" t="s">
+      <c r="M19" s="7"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="48">
         <f>I20+I18+I19</f>
         <v>62.60426497152266</v>
       </c>
-      <c r="Q19" s="55">
+      <c r="Q19" s="48">
         <f>P19/E$8</f>
         <v>5.9623109496688249</v>
       </c>
-      <c r="R19" s="59">
-        <f t="shared" si="2"/>
+      <c r="R19" s="52">
+        <f>Q19*B$3</f>
         <v>35.773865698012948</v>
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="172"/>
+      <c r="C20" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="53">
         <v>1E-4</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="54" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="48">
         <f>E73*3</f>
         <v>54.129194105596497</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="49">
         <f>I20/$E$8</f>
         <v>5.1551613433901426</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="55" t="s">
+      <c r="M20" s="7"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="48">
         <f>I21</f>
         <v>10.5</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="48">
         <f>P20/E$8</f>
         <v>1</v>
       </c>
-      <c r="R20" s="54">
-        <f t="shared" si="2"/>
+      <c r="R20" s="47">
+        <f>Q20*B$3</f>
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="61" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="54">
         <v>10.5</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="49">
         <f>I21/$E$8</f>
         <v>1</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
     </row>
     <row r="23" spans="2:18" ht="34">
-      <c r="B23" s="14"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="F23" s="7"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
       <c r="O23"/>
-      <c r="P23" s="65" t="s">
+      <c r="P23" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="Q23" s="65" t="s">
+      <c r="Q23" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="65" t="s">
+      <c r="R23" s="58" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="C24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="66" t="s">
+      <c r="C24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="60">
         <f>E8*E9/1000</f>
         <v>1.05</v>
       </c>
-      <c r="J24" s="173">
+      <c r="J24" s="153">
         <f>I24/$E$8</f>
         <v>0.1</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="69" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="68" t="s">
+      <c r="O24" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="P24" s="70">
+      <c r="P24" s="61">
         <f>I24</f>
         <v>1.05</v>
       </c>
-      <c r="Q24" s="70">
+      <c r="Q24" s="61">
         <f>J24</f>
         <v>0.1</v>
       </c>
-      <c r="R24" s="71">
-        <f t="shared" ref="R24:R25" si="3">Q24*B$3</f>
+      <c r="R24" s="62">
+        <f>Q24*B$3</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67" t="s">
+      <c r="B25" s="63"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="60">
         <f>E33</f>
         <v>8.2011674188135402</v>
       </c>
-      <c r="J25" s="173">
+      <c r="J25" s="153">
         <f>I25/$E$8</f>
         <v>0.78106356369652763</v>
       </c>
-      <c r="M25" s="73"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="68" t="s">
+      <c r="M25" s="64"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="70">
+      <c r="P25" s="61">
         <f>SUM(I25:I27)</f>
         <v>69.774645623627009</v>
       </c>
-      <c r="Q25" s="70">
+      <c r="Q25" s="61">
         <f>SUM(J25:J27)</f>
         <v>6.6452043451073335</v>
       </c>
-      <c r="R25" s="71">
-        <f t="shared" si="3"/>
+      <c r="R25" s="62">
+        <f>Q25*B$3</f>
         <v>39.871226070643999</v>
       </c>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="65">
         <v>0.2</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67" t="s">
+      <c r="F26" s="64"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="60">
         <f>E50</f>
         <v>31.927185932061899</v>
       </c>
-      <c r="J26" s="173">
+      <c r="J26" s="153">
         <f>I26/$E$8</f>
         <v>3.0406843744820855</v>
       </c>
-      <c r="M26" s="73"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="4"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="168"/>
+      <c r="C27" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="65">
         <v>0.4</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67" t="s">
+      <c r="F27" s="64"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="60">
         <f>E70*3</f>
         <v>29.646292272751563</v>
       </c>
-      <c r="J27" s="173">
+      <c r="J27" s="153">
         <f>I27/$E$8</f>
         <v>2.8234564069287202</v>
       </c>
-      <c r="M27" s="73"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="4"/>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="168"/>
+      <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="65">
         <v>1050</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="76"/>
+      <c r="F28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="67"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="4"/>
-      <c r="C29" s="41" t="s">
+      <c r="B29" s="168"/>
+      <c r="C29" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="68">
         <v>0.123762376237624</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="79" t="s">
+      <c r="F29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="Q29" s="79" t="s">
+      <c r="Q29" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="80" t="s">
+      <c r="R29" s="71" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="34">
-      <c r="B30" s="4"/>
-      <c r="C30" s="41" t="s">
+      <c r="B30" s="168"/>
+      <c r="C30" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="65">
         <v>8.5900000000000074E-2</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="69"/>
+      <c r="G30" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="83" t="s">
+      <c r="H30" s="72"/>
+      <c r="I30" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="83" t="s">
+      <c r="J30" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="81" t="s">
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="4"/>
-      <c r="C31" s="41" t="s">
+      <c r="B31" s="168"/>
+      <c r="C31" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="74">
-        <v>1</v>
-      </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="85" t="s">
+      <c r="E31" s="65">
+        <v>1</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="86">
+      <c r="I31" s="76">
         <f>E14</f>
         <v>0.78750000000000009</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J31" s="76">
         <f>I31/E$8</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="M31" s="73"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="85"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="75"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="4"/>
-      <c r="C32" s="88" t="s">
+      <c r="B32" s="168"/>
+      <c r="C32" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="79">
         <f>PI()*E30^2/4</f>
         <v>5.7953038220587352E-3</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="85" t="s">
+      <c r="F32" s="64"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="86">
+      <c r="I32" s="76">
         <f>E35</f>
         <v>1.6402334837627082</v>
       </c>
-      <c r="J32" s="86">
+      <c r="J32" s="76">
         <f>I32/E$8</f>
         <v>0.15621271273930554</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="85" t="s">
+      <c r="M32" s="64"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="P32" s="86">
+      <c r="P32" s="76">
         <f>I31</f>
         <v>0.78750000000000009</v>
       </c>
-      <c r="Q32" s="90">
+      <c r="Q32" s="80">
         <f>P32/E$8</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="R32" s="86">
+      <c r="R32" s="76">
         <f>Q32*B$3</f>
         <v>0.45000000000000007</v>
       </c>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="4"/>
-      <c r="C33" s="88" t="s">
+      <c r="B33" s="168"/>
+      <c r="C33" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="81">
         <v>8.2011674188135402</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="85" t="s">
+      <c r="F33" s="64"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="86">
+      <c r="I33" s="76">
         <f>E52</f>
         <v>6.4031186695503735</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J33" s="76">
         <f>I33/E$8</f>
         <v>0.60982082567146412</v>
       </c>
-      <c r="M33" s="73"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="85" t="s">
+      <c r="M33" s="64"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="P33" s="86">
+      <c r="P33" s="76">
         <f>SUM(I32:I34)</f>
         <v>13.972610607863395</v>
       </c>
-      <c r="Q33" s="90">
+      <c r="Q33" s="80">
         <f>P33/E$8</f>
         <v>1.3307248197965138</v>
       </c>
-      <c r="R33" s="86">
-        <f t="shared" ref="R33:R34" si="4">Q33*B$3</f>
+      <c r="R33" s="76">
+        <f>Q33*B$3</f>
         <v>7.9843489187790828</v>
       </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="4"/>
-      <c r="C34" s="88" t="s">
+      <c r="B34" s="168"/>
+      <c r="C34" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="91">
+      <c r="E34" s="81">
         <f>E33*E27</f>
         <v>3.2804669675254163</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="85" t="s">
+      <c r="F34" s="64"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="I34" s="86">
+      <c r="I34" s="76">
         <f>E72*3</f>
         <v>5.9292584545503129</v>
       </c>
-      <c r="J34" s="86">
+      <c r="J34" s="76">
         <f>I34/E$8</f>
         <v>0.56469128138574409</v>
       </c>
       <c r="M34"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
+      <c r="N34" s="169"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="4"/>
-      <c r="C35" s="88" t="s">
+      <c r="B35" s="168"/>
+      <c r="C35" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="91">
+      <c r="E35" s="81">
         <f>E33*E26</f>
         <v>1.6402334837627082</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="4"/>
       <c r="M35"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="4"/>
-      <c r="C36" s="88" t="s">
+      <c r="B36" s="168"/>
+      <c r="C36" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="91">
+      <c r="E36" s="81">
         <v>5.7838884375515125</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="64"/>
       <c r="M36"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="92" t="s">
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="Q36" s="92" t="s">
+      <c r="Q36" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="R36" s="93" t="s">
+      <c r="R36" s="83" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="34">
-      <c r="B37" s="4"/>
-      <c r="C37" s="94" t="s">
+      <c r="B37" s="168"/>
+      <c r="C37" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="95">
+      <c r="E37" s="85">
         <v>5000</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="96" t="s">
+      <c r="F37" s="64"/>
+      <c r="G37" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98" t="s">
+      <c r="H37" s="86"/>
+      <c r="I37" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="98" t="s">
+      <c r="J37" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
       <c r="M37"/>
-      <c r="N37" s="96" t="s">
+      <c r="N37" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="4"/>
-      <c r="C38" s="94" t="s">
+      <c r="B38" s="168"/>
+      <c r="C38" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="94" t="s">
+      <c r="D38" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="102">
+      <c r="E38" s="91">
         <v>82.563235804081103</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="103" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="101">
+      <c r="I38" s="90">
         <f>E15</f>
         <v>0.26250000000000001</v>
       </c>
-      <c r="J38" s="101">
+      <c r="J38" s="90">
         <f>I38/E$8</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
       <c r="M38"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="103"/>
+      <c r="N38" s="170"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="4"/>
-      <c r="C39" s="94" t="s">
+      <c r="B39" s="168"/>
+      <c r="C39" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="105">
-        <v>1</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="103" t="s">
+      <c r="E39" s="94">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="101">
+      <c r="I39" s="90">
         <f>E34</f>
         <v>3.2804669675254163</v>
       </c>
-      <c r="J39" s="101">
+      <c r="J39" s="90">
         <f>I39/E$8</f>
         <v>0.31242542547861107</v>
       </c>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
       <c r="M39"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="103" t="s">
+      <c r="N39" s="170"/>
+      <c r="O39" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="P39" s="106">
+      <c r="P39" s="95">
         <f>I38</f>
         <v>0.26250000000000001</v>
       </c>
-      <c r="Q39" s="107">
+      <c r="Q39" s="96">
         <f>P39/E$8</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R39" s="108">
+      <c r="R39" s="97">
         <f>Q39*B$3</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="4"/>
-      <c r="C40" s="94" t="s">
+      <c r="B40" s="168"/>
+      <c r="C40" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="94">
+      <c r="E40" s="84">
         <f>E36*E39</f>
         <v>5.7838884375515125</v>
       </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="103" t="s">
+      <c r="F40" s="98"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="101">
+      <c r="I40" s="90">
         <f>E51</f>
         <v>12.806237339100747</v>
       </c>
-      <c r="J40" s="101">
+      <c r="J40" s="90">
         <f>I40/E$8</f>
         <v>1.2196416513429282</v>
       </c>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
       <c r="M40"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="103" t="s">
+      <c r="N40" s="170"/>
+      <c r="O40" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="P40" s="106">
+      <c r="P40" s="95">
         <f>SUM(I39:I41)</f>
         <v>27.945221215726789</v>
       </c>
-      <c r="Q40" s="107">
+      <c r="Q40" s="96">
         <f>P40/E$8</f>
         <v>2.6614496395930276</v>
       </c>
-      <c r="R40" s="108">
-        <f t="shared" ref="R40:R41" si="5">Q40*B$3</f>
+      <c r="R40" s="97">
+        <f>Q40*B$3</f>
         <v>15.968697837558166</v>
       </c>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="4"/>
-      <c r="C41" s="94" t="s">
+      <c r="B41" s="168"/>
+      <c r="C41" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="94">
+      <c r="E41" s="84">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="103" t="s">
+      <c r="F41" s="98"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="I41" s="101">
+      <c r="I41" s="90">
         <f>E71*3</f>
         <v>11.858516909100626</v>
       </c>
-      <c r="J41" s="101">
+      <c r="J41" s="90">
         <f>I41/E$8</f>
         <v>1.1293825627714882</v>
       </c>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
       <c r="M41"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="C42" s="42"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="5"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
+      <c r="C42" s="37"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="4"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="161" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="114">
+      <c r="E43" s="102">
         <v>0.2</v>
       </c>
-      <c r="F43" s="73"/>
+      <c r="F43" s="64"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="115" t="s">
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="117">
+      <c r="P43" s="104"/>
+      <c r="Q43" s="105">
         <f>E20*1000000/18*Q39</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="R43" s="116">
+      <c r="R43" s="104">
         <f>Q43*B$3</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="118"/>
-      <c r="C44" s="41" t="s">
+      <c r="B44" s="162"/>
+      <c r="C44" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="114">
+      <c r="E44" s="102">
         <v>0.4</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="119" t="s">
+      <c r="F44" s="64"/>
+      <c r="G44" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="88" t="s">
+      <c r="H44" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="I44" s="120">
+      <c r="I44" s="165">
         <v>3</v>
       </c>
-      <c r="J44" s="120"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="115" t="s">
+      <c r="J44" s="165"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="O44" s="116" t="s">
+      <c r="O44" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="117">
+      <c r="P44" s="104"/>
+      <c r="Q44" s="105">
         <f>E58*1000000/18*Q39</f>
         <v>1.388888888888889E-2</v>
       </c>
-      <c r="R44" s="116">
+      <c r="R44" s="104">
         <f>Q44*B$3</f>
         <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="118"/>
-      <c r="C45" s="41" t="s">
+      <c r="B45" s="162"/>
+      <c r="C45" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="114">
-        <v>1</v>
-      </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="88" t="s">
+      <c r="E45" s="102">
+        <v>1</v>
+      </c>
+      <c r="F45" s="64"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="I45" s="120">
+      <c r="I45" s="165">
         <v>3</v>
       </c>
-      <c r="J45" s="120"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
+      <c r="J45" s="165"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="118"/>
-      <c r="C46" s="41" t="s">
+      <c r="B46" s="162"/>
+      <c r="C46" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="114">
+      <c r="E46" s="102">
         <v>10</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="88" t="s">
+      <c r="F46" s="64"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="120">
+      <c r="I46" s="165">
         <v>3</v>
       </c>
-      <c r="J46" s="120"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
+      <c r="J46" s="165"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="118"/>
-      <c r="C47" s="41" t="s">
+      <c r="B47" s="162"/>
+      <c r="C47" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="114">
+      <c r="E47" s="102">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="88" t="s">
+      <c r="F47" s="64"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="120">
-        <v>0</v>
-      </c>
-      <c r="J47" s="120"/>
-      <c r="K47" s="123" t="s">
+      <c r="I47" s="165">
+        <v>0</v>
+      </c>
+      <c r="J47" s="165"/>
+      <c r="K47" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="L47" s="123"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="123"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
     </row>
     <row r="48" spans="2:18" ht="34">
-      <c r="B48" s="118"/>
-      <c r="C48" s="41" t="s">
+      <c r="B48" s="162"/>
+      <c r="C48" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="114">
+      <c r="E48" s="102">
         <v>0.33100000000000002</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="124" t="s">
+      <c r="F48" s="64"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="118"/>
-      <c r="C49" s="88" t="s">
+      <c r="B49" s="162"/>
+      <c r="C49" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="88" t="s">
+      <c r="D49" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="126">
+      <c r="E49" s="110">
         <v>3.2015593347751899E-3</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="9"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="109"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="118"/>
-      <c r="C50" s="88" t="s">
+      <c r="B50" s="162"/>
+      <c r="C50" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="E50" s="91">
+      <c r="E50" s="81">
         <v>31.927185932061899</v>
       </c>
-      <c r="F50" s="73"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
+      <c r="F50" s="64"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="118"/>
-      <c r="C51" s="88" t="s">
+      <c r="B51" s="162"/>
+      <c r="C51" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="91">
+      <c r="E51" s="81">
         <v>12.806237339100747</v>
       </c>
-      <c r="F51" s="73"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
+      <c r="F51" s="64"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="118"/>
-      <c r="C52" s="88" t="s">
+      <c r="B52" s="162"/>
+      <c r="C52" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="91">
+      <c r="E52" s="81">
         <v>6.4031186695503735</v>
       </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
       <c r="Q52"/>
       <c r="R52"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="118"/>
-      <c r="C53" s="88" t="s">
+      <c r="B53" s="162"/>
+      <c r="C53" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="91">
+      <c r="E53" s="81">
         <v>2.6911824283746544</v>
       </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="118"/>
-      <c r="C54" s="94" t="s">
+      <c r="B54" s="162"/>
+      <c r="C54" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="102">
+      <c r="E54" s="91">
         <v>50000</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
       <c r="Q54"/>
       <c r="R54"/>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="118"/>
-      <c r="C55" s="94" t="s">
+      <c r="B55" s="162"/>
+      <c r="C55" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="146" t="s">
+      <c r="D55" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="95">
+      <c r="E55" s="85">
         <v>394.41898107182999</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="P55" s="73"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="P55" s="64"/>
       <c r="Q55"/>
       <c r="R55"/>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="118"/>
-      <c r="C56" s="94" t="s">
+      <c r="B56" s="162"/>
+      <c r="C56" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="94">
-        <v>1</v>
-      </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
+      <c r="E56" s="84">
+        <v>1</v>
+      </c>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="118"/>
-      <c r="C57" s="94" t="s">
+      <c r="B57" s="162"/>
+      <c r="C57" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="102" t="s">
+      <c r="D57" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="94">
+      <c r="E57" s="84">
         <f>E56*E53</f>
         <v>2.6911824283746544</v>
       </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="129"/>
-      <c r="C58" s="94" t="s">
+      <c r="B58" s="163"/>
+      <c r="C58" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="94" t="s">
+      <c r="D58" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="94">
+      <c r="E58" s="84">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
     </row>
     <row r="59" spans="2:18">
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
     </row>
     <row r="60" spans="2:18" ht="16" customHeight="1">
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="74">
+      <c r="E60" s="65">
         <v>0.4</v>
       </c>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="131"/>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="131"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="131"/>
-      <c r="P60" s="131"/>
-      <c r="Q60" s="131"/>
-      <c r="R60" s="131"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="113"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="113"/>
+      <c r="O60" s="113"/>
+      <c r="P60" s="113"/>
+      <c r="Q60" s="113"/>
+      <c r="R60" s="113"/>
     </row>
     <row r="61" spans="2:18">
-      <c r="B61" s="130"/>
-      <c r="C61" s="76" t="s">
+      <c r="B61" s="158"/>
+      <c r="C61" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="76" t="s">
+      <c r="D61" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="74">
+      <c r="E61" s="65">
         <v>0.2</v>
       </c>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="131"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="131"/>
-      <c r="Q61" s="131"/>
-      <c r="R61" s="131"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="113"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="113"/>
+      <c r="P61" s="113"/>
+      <c r="Q61" s="113"/>
+      <c r="R61" s="113"/>
     </row>
     <row r="62" spans="2:18">
-      <c r="B62" s="130"/>
-      <c r="C62" s="76" t="s">
+      <c r="B62" s="158"/>
+      <c r="C62" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="76" t="s">
+      <c r="D62" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="132">
+      <c r="E62" s="114">
         <v>1E-3</v>
       </c>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
-      <c r="P62" s="133"/>
-      <c r="Q62" s="133"/>
-      <c r="R62" s="133"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
+      <c r="L62" s="115"/>
+      <c r="M62" s="115"/>
+      <c r="N62" s="115"/>
+      <c r="O62" s="115"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="115"/>
     </row>
     <row r="63" spans="2:18">
-      <c r="B63" s="130"/>
-      <c r="C63" s="76" t="s">
+      <c r="B63" s="158"/>
+      <c r="C63" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="76" t="s">
+      <c r="D63" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="74">
+      <c r="E63" s="65">
         <v>4.9594388123388865E-2</v>
       </c>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="133"/>
-      <c r="M63" s="133"/>
-      <c r="N63" s="133"/>
-      <c r="O63" s="133"/>
-      <c r="P63" s="133"/>
-      <c r="Q63" s="133"/>
-      <c r="R63" s="133"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="115"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="115"/>
+      <c r="L63" s="115"/>
+      <c r="M63" s="115"/>
+      <c r="N63" s="115"/>
+      <c r="O63" s="115"/>
+      <c r="P63" s="115"/>
+      <c r="Q63" s="115"/>
+      <c r="R63" s="115"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="B64" s="130"/>
-      <c r="C64" s="76" t="s">
+      <c r="B64" s="158"/>
+      <c r="C64" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="76" t="s">
+      <c r="D64" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E64" s="74">
+      <c r="E64" s="65">
         <v>63661.82836771071</v>
       </c>
-      <c r="F64" s="131"/>
-      <c r="G64" s="131"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="131"/>
-      <c r="O64" s="131"/>
-      <c r="P64" s="131"/>
-      <c r="Q64" s="131"/>
-      <c r="R64" s="131"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="113"/>
+      <c r="L64" s="113"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
+      <c r="O64" s="113"/>
+      <c r="P64" s="113"/>
+      <c r="Q64" s="113"/>
+      <c r="R64" s="113"/>
     </row>
     <row r="65" spans="2:18">
-      <c r="B65" s="130"/>
-      <c r="C65" s="76" t="s">
+      <c r="B65" s="158"/>
+      <c r="C65" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="74">
+      <c r="E65" s="65">
         <v>2.4752475247524743E-2</v>
       </c>
-      <c r="F65" s="131"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="131"/>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="131"/>
-      <c r="R65" s="131"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="130"/>
-      <c r="C66" s="76" t="s">
+      <c r="B66" s="158"/>
+      <c r="C66" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="76" t="s">
+      <c r="D66" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="E66" s="74">
-        <v>1</v>
-      </c>
-      <c r="F66" s="131"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
-      <c r="O66" s="131"/>
-      <c r="P66" s="131"/>
-      <c r="Q66" s="131"/>
-      <c r="R66" s="131"/>
+      <c r="E66" s="65">
+        <v>1</v>
+      </c>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
+      <c r="O66" s="113"/>
+      <c r="P66" s="113"/>
+      <c r="Q66" s="113"/>
+      <c r="R66" s="113"/>
     </row>
     <row r="67" spans="2:18">
-      <c r="B67" s="130"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="134"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="131"/>
-      <c r="P67" s="131"/>
-      <c r="Q67" s="131"/>
-      <c r="R67" s="131"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="130"/>
-      <c r="C68" s="88" t="s">
+      <c r="B68" s="158"/>
+      <c r="C68" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="88" t="s">
+      <c r="D68" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="E68" s="91"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="131"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="131"/>
-      <c r="O68" s="131"/>
-      <c r="P68" s="131"/>
-      <c r="Q68" s="131"/>
-      <c r="R68" s="131"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="113"/>
+      <c r="I68" s="113"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
+      <c r="O68" s="113"/>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="113"/>
+      <c r="R68" s="113"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="130"/>
-      <c r="C69" s="88" t="s">
+      <c r="B69" s="158"/>
+      <c r="C69" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="88" t="s">
+      <c r="D69" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="91">
+      <c r="E69" s="81">
         <v>12.759813013150143</v>
       </c>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="130"/>
-      <c r="C70" s="88" t="s">
+      <c r="B70" s="158"/>
+      <c r="C70" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D70" s="88" t="s">
+      <c r="D70" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="91">
+      <c r="E70" s="81">
         <v>9.8820974242505208</v>
       </c>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="73"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="73"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="73"/>
-      <c r="Q70" s="73"/>
-      <c r="R70" s="73"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="130"/>
-      <c r="C71" s="88" t="s">
+      <c r="B71" s="158"/>
+      <c r="C71" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="88" t="s">
+      <c r="D71" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="91">
+      <c r="E71" s="81">
         <v>3.9528389697002084</v>
       </c>
-      <c r="F71" s="131"/>
-      <c r="G71" s="131"/>
-      <c r="H71" s="131"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="131"/>
-      <c r="K71" s="131"/>
-      <c r="L71" s="131"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
-      <c r="O71" s="131"/>
-      <c r="P71" s="131"/>
-      <c r="Q71" s="131"/>
-      <c r="R71" s="131"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="113"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="130"/>
-      <c r="C72" s="88" t="s">
+      <c r="B72" s="158"/>
+      <c r="C72" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="D72" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E72" s="91">
+      <c r="E72" s="81">
         <v>1.9764194848501042</v>
       </c>
-      <c r="F72" s="131"/>
-      <c r="G72" s="131"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="131"/>
-      <c r="K72" s="131"/>
-      <c r="L72" s="131"/>
-      <c r="M72" s="131"/>
-      <c r="N72" s="131"/>
-      <c r="O72" s="131"/>
-      <c r="P72" s="131"/>
-      <c r="Q72" s="131"/>
-      <c r="R72" s="131"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="113"/>
+      <c r="P72" s="113"/>
+      <c r="Q72" s="113"/>
+      <c r="R72" s="113"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="130"/>
-      <c r="C73" s="88" t="s">
+      <c r="B73" s="158"/>
+      <c r="C73" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="175" t="s">
+      <c r="D73" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="176">
+      <c r="E73" s="156">
         <v>18.0430647018655</v>
       </c>
-      <c r="F73" s="131"/>
-      <c r="G73" s="131"/>
-      <c r="H73" s="131"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="131"/>
-      <c r="K73" s="131"/>
-      <c r="L73" s="131"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="131"/>
-      <c r="P73" s="131"/>
-      <c r="Q73" s="131"/>
-      <c r="R73" s="131"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="113"/>
     </row>
     <row r="74" spans="2:18">
-      <c r="B74" s="130"/>
-      <c r="C74" s="88" t="s">
+      <c r="B74" s="158"/>
+      <c r="C74" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="137" t="s">
+      <c r="D74" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="136"/>
+      <c r="E74" s="118"/>
     </row>
     <row r="75" spans="2:18">
-      <c r="B75" s="130"/>
-      <c r="C75" s="88" t="s">
+      <c r="B75" s="158"/>
+      <c r="C75" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="137" t="s">
+      <c r="D75" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="E75" s="91">
+      <c r="E75" s="81">
         <f>E8/3</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="76" spans="2:18">
-      <c r="B76" s="130"/>
-      <c r="C76" s="94" t="s">
+      <c r="B76" s="158"/>
+      <c r="C76" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="94" t="s">
+      <c r="D76" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="E76" s="102">
+      <c r="E76" s="91">
         <v>25000</v>
       </c>
     </row>
     <row r="77" spans="2:18">
-      <c r="B77" s="130"/>
-      <c r="C77" s="94" t="s">
+      <c r="B77" s="158"/>
+      <c r="C77" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="94" t="s">
+      <c r="D77" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="E77" s="102">
+      <c r="E77" s="91">
         <v>3570.78030765636</v>
       </c>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="130"/>
-      <c r="C78" s="94" t="s">
+      <c r="B78" s="158"/>
+      <c r="C78" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="104" t="s">
+      <c r="D78" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="102">
+      <c r="E78" s="91">
         <v>1.4</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="130"/>
-      <c r="C79" s="94" t="s">
+      <c r="B79" s="158"/>
+      <c r="C79" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="D79" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="102">
+      <c r="E79" s="91">
         <f>E78*E73</f>
         <v>25.260290582611699</v>
       </c>
     </row>
     <row r="80" spans="2:18">
-      <c r="B80" s="130"/>
-      <c r="C80" s="94" t="s">
+      <c r="B80" s="158"/>
+      <c r="C80" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="94" t="s">
+      <c r="D80" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="102">
+      <c r="E80" s="91">
         <f>E79*E77/(E79+E77)</f>
         <v>25.082850349976265</v>
       </c>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="130"/>
-      <c r="C81" s="94" t="s">
+      <c r="B81" s="158"/>
+      <c r="C81" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="94" t="s">
+      <c r="D81" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="105">
+      <c r="E81" s="94">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="82" spans="2:18">
-      <c r="B82" s="138"/>
-      <c r="C82" s="139"/>
-      <c r="D82" s="139"/>
-      <c r="E82" s="140"/>
+      <c r="B82" s="120"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="122"/>
     </row>
     <row r="83" spans="2:18" ht="16" customHeight="1"/>
     <row r="85" spans="2:18">
-      <c r="B85" s="168" t="s">
+      <c r="B85" s="160" t="s">
         <v>367</v>
       </c>
-      <c r="C85" s="168"/>
-      <c r="D85" s="168"/>
-      <c r="E85" s="168"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="142" t="s">
+      <c r="B86" s="159" t="s">
         <v>368</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="D86" s="94" t="s">
+      <c r="D86" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="170">
+      <c r="E86" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="142"/>
-      <c r="C87" s="94" t="s">
+      <c r="B87" s="159"/>
+      <c r="C87" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="D87" s="104" t="s">
+      <c r="D87" s="93" t="s">
         <v>365</v>
       </c>
-      <c r="E87" s="171">
+      <c r="E87" s="151">
         <f>B3*E86</f>
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="142"/>
-      <c r="C88" s="94" t="s">
+      <c r="B88" s="159"/>
+      <c r="C88" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="D88" s="169" t="s">
+      <c r="D88" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="E88" s="172">
+      <c r="E88" s="152">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="89" spans="2:18" ht="19" customHeight="1">
-      <c r="B89" s="142"/>
-      <c r="C89" s="94" t="s">
+      <c r="B89" s="159"/>
+      <c r="C89" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="D89" s="104" t="s">
+      <c r="D89" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="E89" s="171">
+      <c r="E89" s="151">
         <f>E87/(2*PI()*E88)</f>
         <v>4774.6482927568604</v>
       </c>
     </row>
     <row r="90" spans="2:18" ht="19" customHeight="1">
-      <c r="B90" s="142"/>
-      <c r="C90" s="94" t="s">
+      <c r="B90" s="159"/>
+      <c r="C90" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="D90" s="104" t="s">
+      <c r="D90" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="E90" s="171"/>
+      <c r="E90" s="151"/>
     </row>
     <row r="91" spans="2:18" ht="19" customHeight="1"/>
     <row r="92" spans="2:18" ht="19" customHeight="1"/>
     <row r="93" spans="2:18" s="3" customFormat="1">
-      <c r="B93" s="141"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
+      <c r="B93" s="123"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
     </row>
     <row r="94" spans="2:18" s="3" customFormat="1">
-      <c r="B94" s="141"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
+      <c r="B94" s="123"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" spans="2:18" s="3" customFormat="1">
-      <c r="B95" s="168" t="s">
+      <c r="B95" s="160" t="s">
         <v>379</v>
       </c>
-      <c r="C95" s="168"/>
-      <c r="D95" s="168"/>
-      <c r="E95" s="168"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
+      <c r="C95" s="160"/>
+      <c r="D95" s="160"/>
+      <c r="E95" s="160"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="142" t="s">
+      <c r="B96" s="159" t="s">
         <v>378</v>
       </c>
-      <c r="C96" s="94" t="s">
+      <c r="C96" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="94" t="s">
+      <c r="D96" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="E96" s="102">
+      <c r="E96" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="142"/>
-      <c r="C97" s="94" t="s">
+      <c r="B97" s="159"/>
+      <c r="C97" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D97" s="143" t="s">
+      <c r="D97" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="E97" s="144">
+      <c r="E97" s="125">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="142"/>
+      <c r="B98" s="159"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="142"/>
-      <c r="C99" s="94" t="s">
+      <c r="B99" s="159"/>
+      <c r="C99" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D99" s="94" t="s">
+      <c r="D99" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E99" s="145">
+      <c r="E99" s="126">
         <f>E62</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="142"/>
-      <c r="C100" s="94" t="s">
+      <c r="B100" s="159"/>
+      <c r="C100" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D100" s="94" t="s">
+      <c r="D100" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="E100" s="102"/>
+      <c r="E100" s="91"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="142"/>
-      <c r="C101" s="94" t="s">
+      <c r="B101" s="159"/>
+      <c r="C101" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="94" t="s">
+      <c r="D101" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="102">
+      <c r="E101" s="91">
         <f>(E50+E33)/3*E96</f>
         <v>13.376117783625148</v>
       </c>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="142"/>
-      <c r="C102" s="94" t="s">
+      <c r="B102" s="159"/>
+      <c r="C102" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D102" s="94" t="s">
+      <c r="D102" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="E102" s="102">
+      <c r="E102" s="91">
         <f>(E53+E36)/3*E97</f>
         <v>19.77516535382772</v>
       </c>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="142"/>
-      <c r="C103" s="94" t="s">
+      <c r="B103" s="159"/>
+      <c r="C103" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="94" t="s">
+      <c r="D103" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="102">
+      <c r="E103" s="91">
         <f>E8/3*E86</f>
         <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="N2:R3"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="N30:N34"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="N37:N41"/>
     <mergeCell ref="K47:N47"/>
     <mergeCell ref="B60:B81"/>
     <mergeCell ref="B96:B103"/>
@@ -70151,21 +70167,6 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="N30:N34"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="N37:N41"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="N2:R3"/>
-    <mergeCell ref="B6:B20"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="N16:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -70190,275 +70191,275 @@
       <c r="B1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="137" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="156" t="s">
+      <c r="E1" s="137" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="F1" s="137" t="s">
         <v>321</v>
       </c>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="138" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="41">
-        <v>0</v>
-      </c>
-      <c r="C2" s="162" t="s">
+      <c r="B2" s="36">
+        <v>0</v>
+      </c>
+      <c r="C2" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="139" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="159"/>
+      <c r="G2" s="140"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="41">
-        <v>0</v>
-      </c>
-      <c r="C3" s="162" t="s">
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="144" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="158" t="s">
+      <c r="F3" s="139" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="159"/>
+      <c r="G3" s="140"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="41">
-        <v>0</v>
-      </c>
-      <c r="C4" s="162" t="s">
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="143" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="139" t="s">
         <v>331</v>
       </c>
-      <c r="G4" s="159"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="2:7" ht="29">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="145" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="E5" s="144" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="139" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="29">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="145" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="29">
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <v>2</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="145" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="144" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="163" t="s">
+      <c r="E7" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="159" t="s">
+      <c r="G7" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="29">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="144" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="163" t="s">
+      <c r="E8" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="29">
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <v>5</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="143" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="148" t="s">
         <v>347</v>
       </c>
-      <c r="E9" s="163" t="s">
+      <c r="E9" s="144" t="s">
         <v>348</v>
       </c>
-      <c r="F9" s="158" t="s">
+      <c r="F9" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="29">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="145" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="144" t="s">
         <v>351</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="29">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="145" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="144" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="158" t="s">
+      <c r="F11" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="159" t="s">
+      <c r="G11" s="140" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="29">
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <v>30</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="143" t="s">
         <v>356</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="148" t="s">
         <v>357</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="144" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="141" t="s">
         <v>359</v>
       </c>
-      <c r="G12" s="161" t="s">
+      <c r="G12" s="142" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="148" t="s">
+      <c r="D15" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="23" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="23" t="s">
         <v>374</v>
       </c>
     </row>
@@ -70469,647 +70470,647 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F6C89F-078E-CC46-8089-524A0D889242}">
-  <dimension ref="A3:D47"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="147" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="147" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="147" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="147" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="128" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="128" customWidth="1"/>
+    <col min="4" max="4" width="114.5" style="128" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="24">
+        <v>45</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>199</v>
+      <c r="A3" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="24">
+        <v>200</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="27">
-        <v>45</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="24">
+        <v>20</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>202</v>
+      <c r="D4" s="24" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="27">
-        <v>200</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="24">
+        <v>17</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="24">
+        <v>25</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="24">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="27">
-        <v>20</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="D11" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="133">
+        <v>500</v>
+      </c>
+      <c r="C17" s="133" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="133" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="133">
+        <v>100</v>
+      </c>
+      <c r="C18" s="133" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="133" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="133">
+        <v>100</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="133" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="133">
+        <v>60</v>
+      </c>
+      <c r="C21" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="133">
+        <v>10</v>
+      </c>
+      <c r="C22" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="133" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="130" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="130">
+        <v>60</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="130">
+        <v>10</v>
+      </c>
+      <c r="C28" s="130" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="78">
+      <c r="A31" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="135" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="134">
+        <v>3</v>
+      </c>
+      <c r="C32" s="134" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="134">
+        <v>450</v>
+      </c>
+      <c r="C33" s="134" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="134" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="134" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="134" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="24">
+        <v>1</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="134" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="133" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="133" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="85">
+      <c r="A42" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="132">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="136" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="68">
+      <c r="A43" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="132">
+        <v>1.388888888888889E-2</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="136" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" s="24">
+        <v>3</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="27">
-        <v>17</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="27">
-        <v>25</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="27">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="154" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="27">
-        <v>4</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="152" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="152">
-        <v>500</v>
-      </c>
-      <c r="C19" s="152" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="152" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="152">
-        <v>100</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="152" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="152">
-        <v>100</v>
-      </c>
-      <c r="C21" s="152" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="152" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="152" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="152" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="152" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" s="152">
-        <v>60</v>
-      </c>
-      <c r="C23" s="152" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="152" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="152">
-        <v>10</v>
-      </c>
-      <c r="C24" s="152" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="152" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="152" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="152" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="152" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="152" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="149" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="149" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="149" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="149">
-        <v>60</v>
-      </c>
-      <c r="C28" s="149" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" s="149" t="s">
-        <v>260</v>
-      </c>
-      <c r="C29" s="149" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="149" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="149">
-        <v>10</v>
-      </c>
-      <c r="C30" s="149" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="149" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="149" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="149" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="149" t="s">
-        <v>275</v>
-      </c>
-      <c r="B32" s="149" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="149" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="78">
-      <c r="A33" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B33" s="149" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="150" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="154" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="153" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="153">
-        <v>3</v>
-      </c>
-      <c r="C34" s="153" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="153" t="s">
-        <v>280</v>
-      </c>
-      <c r="B35" s="153">
-        <v>450</v>
-      </c>
-      <c r="C35" s="153" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="153" t="s">
-        <v>282</v>
-      </c>
-      <c r="B36" s="153" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" s="153" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="153" t="s">
-        <v>285</v>
-      </c>
-      <c r="B37" s="153" t="s">
-        <v>286</v>
-      </c>
-      <c r="C37" s="153" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="153" t="s">
-        <v>289</v>
-      </c>
-      <c r="B38" s="153" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="153" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B40" s="27">
-        <v>1</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" s="153" t="s">
-        <v>297</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="152" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="153" t="s">
-        <v>301</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="152" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="152" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="85">
-      <c r="A44" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="151">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="68">
-      <c r="A45" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B45" s="151">
-        <v>1.388888888888889E-2</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" s="155" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="B46" s="27">
-        <v>3</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="152" t="s">
+      <c r="D44" s="133" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="27" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B45" s="24">
         <v>55</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C45" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="D47" s="152" t="s">
+      <c r="D45" s="133" t="s">
         <v>314</v>
       </c>
     </row>
